--- a/MajoliFE/Templates/invoices_majoli_template.xlsx
+++ b/MajoliFE/Templates/invoices_majoli_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJEKTI\MajoliFE\MajoliFE\MajoliFE\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01297EB5-8126-45FD-B02D-5698ECA93FD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BD5D7-F486-4C22-AFE3-2CBC209AC2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,9 +232,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -246,6 +243,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -263,18 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +593,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,23 +614,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="30">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -667,8 +664,8 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -680,49 +677,49 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
